--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/fitbit_proj_final/Data/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/fitbit_proj_final/Data/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4265E5-83BD-8740-AABF-4E167C0742A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5E91A141-D877-4D32-AAD3-FA5796B598D7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ID participant</t>
   </si>
@@ -70,10 +60,7 @@
     <t>Missing</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Keine 15 Min. vor Erhebung</t>
+    <t>no data available</t>
   </si>
 </sst>
 </file>
@@ -100,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,16 +113,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -252,7 +246,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -292,7 +286,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
@@ -320,7 +314,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -328,14 +322,66 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -358,7 +404,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -492,7 +538,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -559,7 +605,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -626,7 +672,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -693,7 +739,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -760,7 +806,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -827,7 +873,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -894,7 +940,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -961,7 +1007,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1028,7 +1074,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1095,7 +1141,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1162,7 +1208,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1229,7 +1275,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1296,7 +1342,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1363,7 +1409,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1430,7 +1476,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1497,7 +1543,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1564,7 +1610,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1631,7 +1677,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1698,7 +1744,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1765,14 +1811,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1832,14 +1878,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1899,14 +1945,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1966,14 +2012,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2033,14 +2079,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2100,14 +2146,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2167,14 +2213,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2234,14 +2280,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2301,14 +2347,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2368,14 +2414,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2435,14 +2481,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2502,14 +2548,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2569,14 +2615,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2636,14 +2682,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2703,15 +2749,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2770,15 +2816,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2837,15 +2883,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2904,15 +2950,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2971,15 +3017,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3038,15 +3084,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3105,15 +3151,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3172,15 +3218,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3239,15 +3285,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3306,15 +3352,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3373,15 +3419,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3440,15 +3486,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3507,15 +3553,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3574,15 +3620,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3641,15 +3687,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3708,15 +3754,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3727,6 +3773,877 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4070,1736 +4987,2058 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.65069444444444446</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>824</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>867</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>43</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.66736111111111107</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.67986111111111114</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.75</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>128</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>152</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>24</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.61249999999999993</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3">
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.58402777777777781</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.60625000000000007</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>83</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>134</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>51</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.50902777777777775</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.52708333333333335</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.54027777777777775</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>1025</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>1138</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>113</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.62222222222222223</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.6479166666666667</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>86</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>192</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>106</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.44722222222222219</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.4597222222222222</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>63</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>199</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>136</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.67152777777777783</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.68888888888888899</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.70347222222222217</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>157</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>528</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>371</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>203</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.63472222222222219</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.64236111111111105</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.65486111111111112</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>62</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>260</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>198</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>107</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.46249999999999997</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>112</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>232</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>120</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>108</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.4770833333333333</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.49027777777777781</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.53611111111111109</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>63</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>88</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>25</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>44482</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>109</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.62847222222222221</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.64722222222222225</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>202</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>318</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <f>G13-F13</f>
         <v>116</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>110</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.55277777777777781</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.58263888888888882</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.63402777777777775</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>59</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>108</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>49</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>204</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="F15" s="4">
+        <v>114</v>
+      </c>
+      <c r="G15" s="4">
+        <v>225</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM(G15-F15)</f>
         <v>111</v>
       </c>
-      <c r="B15" s="2">
+      <c r="I15" s="3">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>111</v>
+      </c>
+      <c r="B16" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="1">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="1">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="4">
         <v>170</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="4">
         <v>259</v>
       </c>
-      <c r="H15" s="6">
-        <f>SUM(G15-F15)</f>
+      <c r="H16" s="4">
+        <f>SUM(G16-F16)</f>
         <v>89</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="3">
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>112</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="5">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="1">
         <v>0.45277777777777778</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="1">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="4">
         <v>225</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="4">
         <v>351</v>
       </c>
-      <c r="H16" s="6">
-        <f>SUM(G16-F16)</f>
+      <c r="H17" s="4">
+        <f>SUM(G17-F17)</f>
         <v>126</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="3">
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>205</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="1">
         <v>0.4152777777777778</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="5">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="5">
         <v>0.4458333333333333</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="6">
         <v>0.5083333333333333</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="4">
         <v>160</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="4">
         <v>189</v>
       </c>
-      <c r="H17" s="6">
-        <f>SUM(G17-F17)</f>
+      <c r="H18" s="4">
+        <f>SUM(G18-F18)</f>
         <v>29</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="3">
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>206</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="1">
         <v>0.42291666666666666</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="1">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="1">
         <v>0.44861111111111113</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="1">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="4">
         <v>233</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="4">
         <v>318</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="4">
         <v>85</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="3">
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>113</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="1">
         <v>0.55486111111111114</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="1">
         <v>0.56805555555555554</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="1">
         <v>0.60972222222222217</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="4">
         <v>138</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="4">
         <v>491</v>
       </c>
-      <c r="H19" s="6">
-        <f>G19-F19</f>
+      <c r="H20" s="4">
+        <f>G20-F20</f>
         <v>353</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="3">
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>207</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="1">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="1">
         <v>0.42986111111111108</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="1">
         <v>0.44375000000000003</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="1">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="4">
         <v>276</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="4">
         <v>585</v>
       </c>
-      <c r="H20" s="6">
-        <f>G20-F20</f>
+      <c r="H21" s="4">
+        <f>G21-F21</f>
         <v>309</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="3">
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>114</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="1">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="1">
         <v>0.66180555555555554</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="1">
         <v>0.6743055555555556</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="1">
         <v>0.72569444444444453</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="4">
         <v>107</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="4">
         <v>179</v>
       </c>
-      <c r="H21" s="6">
-        <f>G21-F21</f>
+      <c r="H22" s="4">
+        <f>G22-F22</f>
         <v>72</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="3">
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>115</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="1">
         <v>0.38680555555555557</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="1">
         <v>0.4152777777777778</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="1">
         <v>0.42777777777777781</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="1">
         <v>0.47430555555555554</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="4">
         <v>187</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="4">
         <v>754</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" ref="H22:H41" si="0">G22-F22</f>
+      <c r="H23" s="4">
+        <f t="shared" ref="H23:H53" si="0">G23-F23</f>
         <v>567</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="3">
         <v>44580</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>116</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="1">
         <v>0.57708333333333328</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="1">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="4">
         <v>170</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="4">
         <v>630</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="3">
         <v>44585</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>117</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="1">
         <v>0.53749999999999998</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="1">
         <v>0.55277777777777781</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="1">
         <v>0.56736111111111109</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="1">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="4">
         <v>38</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="4">
         <v>38</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I25" s="3">
         <v>44592</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>118</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="1">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="1">
         <v>0.4777777777777778</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="1">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="1">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="4">
         <v>42</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="4">
         <v>438</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="3">
         <v>44606</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>119</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="1">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="1">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="1">
         <v>0.48472222222222222</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="1">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="4">
         <v>225</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="4">
         <v>322</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I27" s="3">
         <v>44608</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>120</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="1">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="4">
         <v>95</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="4">
         <v>188</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="4">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="3">
         <v>44620</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>121</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="1">
         <v>0.42083333333333334</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="1">
         <v>0.43472222222222223</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="1">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="1">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="4">
         <v>143</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="4">
         <v>234</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H29" s="4">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I29" s="3">
         <v>44622</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>208</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="1">
         <v>0.46319444444444446</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="1">
         <v>0.47847222222222219</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="1">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="4">
         <v>38</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="4">
         <v>126</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="3">
         <v>44659</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>209</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="1">
         <v>0.45208333333333334</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="1">
         <v>0.52847222222222223</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="4">
         <v>155</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="4">
         <v>176</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H31" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I31" s="3">
         <v>44664</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>122</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="1">
         <v>0.625</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="1">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="1">
         <v>0.65138888888888891</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="1">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="4">
         <v>122</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G32" s="4">
         <v>328</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H32" s="4">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="3">
         <v>44670</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>210</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1333</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1419</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="I33" s="3">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>211</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B34" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C34" s="1">
         <v>0.59583333333333333</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D34" s="1">
         <v>0.60972222222222217</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E34" s="1">
         <v>0.67013888888888884</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F34" s="4">
         <v>414</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G34" s="4">
         <v>433</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H34" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I34" s="3">
         <v>44686</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>212</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B35" s="1">
         <v>0.6743055555555556</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C35" s="1">
         <v>0.68472222222222223</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D35" s="1">
         <v>0.69861111111111107</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E35" s="1">
         <v>0.75</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F35" s="4">
         <v>589</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G35" s="4">
         <v>633</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H35" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I35" s="3">
         <v>44686</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>213</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B36" s="1">
         <v>0.53402777777777777</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C36" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D36" s="1">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E36" s="1">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F36" s="4">
         <v>133</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G36" s="4">
         <v>317</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H36" s="4">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I36" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>123</v>
       </c>
-      <c r="B35" s="2">
-        <v>0.58819444444444446</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B37" s="1">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="C37" s="1">
         <v>0.59652777777777777</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D37" s="1">
         <v>0.61041666666666672</v>
       </c>
-      <c r="E35" s="2">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E37" s="1">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="F37" s="4">
         <v>1155</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G37" s="4">
         <v>1309</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H37" s="4">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I37" s="3">
         <v>44701</v>
       </c>
-      <c r="K35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>214</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B38" s="1">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C38" s="1">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D38" s="1">
         <v>0.53819444444444442</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E38" s="1">
         <v>0.59236111111111112</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F38" s="4">
         <v>686</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G38" s="4">
         <v>883</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H38" s="4">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I38" s="3">
         <v>44706</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>215</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B39" s="1">
         <v>0.59791666666666665</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C39" s="1">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D39" s="1">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E39" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F39" s="4">
         <v>1526</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G39" s="4">
         <v>1648</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H39" s="4">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I39" s="3">
         <v>44706</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>124</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B40" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C40" s="1">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E40" s="1">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F40" s="4">
         <v>25</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G40" s="4">
         <v>45</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H40" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I40" s="3">
         <v>44715</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>216</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="F41" s="4">
+        <v>120</v>
+      </c>
+      <c r="G41" s="4">
+        <v>176</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I41" s="3">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>125</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B42" s="1">
         <v>0.41388888888888892</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C42" s="1">
         <v>0.42777777777777781</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D42" s="1">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E42" s="1">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F42" s="4">
         <v>75</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G42" s="4">
         <v>199</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H42" s="4">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I42" s="3">
         <v>44720</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>217</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="F43" s="4">
+        <v>410</v>
+      </c>
+      <c r="G43" s="4">
+        <v>449</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="3">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>218</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B44" s="1">
         <v>0.33055555555555555</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C44" s="1">
         <v>0.3444444444444445</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D44" s="1">
         <v>0.35833333333333334</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E44" s="1">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F44" s="4">
         <v>62</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G44" s="4">
         <v>149</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H44" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I44" s="3">
         <v>44728</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>219</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B45" s="1">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C45" s="1">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D45" s="1">
         <v>0.44513888888888892</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E45" s="1">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F45" s="4">
         <v>442</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G45" s="4">
         <v>631</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H45" s="4">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I45" s="3">
         <v>44728</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>126</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="F46" s="4">
+        <v>129</v>
+      </c>
+      <c r="G46" s="4">
+        <v>394</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="I46" s="3">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>127</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="F47" s="4">
+        <v>283</v>
+      </c>
+      <c r="G47" s="4">
+        <v>404</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="I47" s="3">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>128</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F48" s="4">
+        <v>23</v>
+      </c>
+      <c r="G48" s="4">
+        <v>101</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="I48" s="3">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>129</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="F49" s="4">
+        <v>155</v>
+      </c>
+      <c r="G49" s="4">
+        <v>251</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I49" s="3">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>130</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F50" s="4">
+        <v>34</v>
+      </c>
+      <c r="G50" s="4">
+        <v>175</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="I50" s="3">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>131</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="F51" s="4">
+        <v>119</v>
+      </c>
+      <c r="G51" s="4">
+        <v>295</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="I51" s="3">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>132</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F52" s="4">
+        <v>67</v>
+      </c>
+      <c r="G52" s="4">
+        <v>88</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I52" s="3">
+        <v>44818</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>133</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F53" s="4">
+        <v>162</v>
+      </c>
+      <c r="G53" s="4">
+        <v>266</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="I53" s="3">
+        <v>44818</v>
+      </c>
+      <c r="K53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5816,7 +7055,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5860,7 +7099,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5882,7 +7121,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5904,7 +7143,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5926,7 +7165,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5948,7 +7187,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5970,7 +7209,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5992,7 +7231,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6014,7 +7253,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6036,7 +7275,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6058,7 +7297,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6080,7 +7319,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6102,7 +7341,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6124,7 +7363,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6146,7 +7385,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6168,7 +7407,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6190,7 +7429,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6212,7 +7451,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6234,7 +7473,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6256,7 +7495,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6278,14 +7517,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6300,14 +7539,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6322,14 +7561,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6344,14 +7583,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6366,14 +7605,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6388,14 +7627,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6410,14 +7649,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6432,14 +7671,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6454,14 +7693,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6476,14 +7715,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6498,14 +7737,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6520,14 +7759,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6542,14 +7781,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6564,14 +7803,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6586,15 +7825,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6608,15 +7847,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6630,15 +7869,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6652,15 +7891,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6674,15 +7913,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6696,15 +7935,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>33</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6718,15 +7957,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>34</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6740,15 +7979,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>35</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6762,15 +8001,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>36</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>36</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6784,15 +8023,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>37</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6806,15 +8045,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>38</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>38</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6828,15 +8067,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6850,15 +8089,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>40</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6872,15 +8111,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>41</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6894,15 +8133,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>42</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6916,15 +8155,301 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId55" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId56" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId57" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId58" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId59" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId60" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId61" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId62" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId63" name="Check Box 63">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1088" r:id="rId64" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId65" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId66" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId67" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/fitbit_proj_final/Data/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/fitbit_proj_final/Data/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5E91A141-D877-4D32-AAD3-FA5796B598D7}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{10542DDB-8A6B-485A-A73E-EB7B956D7431}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>ID participant</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>no data available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no steps </t>
+  </si>
+  <si>
+    <t>no steps</t>
   </si>
 </sst>
 </file>
@@ -101,10 +107,54 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -113,17 +163,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -246,7 +300,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -314,7 +368,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,7 +400,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,6 +439,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -4644,6 +4702,73 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4989,2056 +5114,2092 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A46:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="6"/>
+    <col min="10" max="10" width="16.19921875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>101</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>0.65069444444444446</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="10">
         <v>824</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="10">
         <v>867</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="10">
         <v>43</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="13">
         <v>44398</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>102</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>0.66736111111111107</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>0.67986111111111114</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="7">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="F3" s="10">
         <v>128</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="10">
         <v>152</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
         <v>24</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="13">
         <v>44404</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>103</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>0.61249999999999993</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13">
         <v>44405</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>104</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>0.58402777777777781</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>0.60625000000000007</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <v>83</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="10">
         <v>134</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="10">
         <v>51</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="13">
         <v>44413</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>201</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>0.50902777777777775</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>0.52708333333333335</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>0.54027777777777775</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="10">
         <v>1025</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="10">
         <v>1138</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="10">
         <v>113</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="13">
         <v>44439</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>105</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>0.62222222222222223</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>0.6479166666666667</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="10">
         <v>86</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="10">
         <v>192</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="10">
         <v>106</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="13">
         <v>44440</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>106</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>0.44722222222222219</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>0.4597222222222222</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="10">
         <v>63</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="10">
         <v>199</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="10">
         <v>136</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="13">
         <v>44454</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>202</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>0.67152777777777783</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>0.68888888888888899</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>0.70347222222222217</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="10">
         <v>157</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="10">
         <v>528</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="10">
         <v>371</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="13">
         <v>44466</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>203</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>0.63472222222222219</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>0.64236111111111105</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>0.65486111111111112</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
         <v>62</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="10">
         <v>260</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="10">
         <v>198</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="13">
         <v>44474</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>107</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>0.46249999999999997</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>112</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <v>232</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="10">
         <v>120</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="13">
         <v>44475</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>108</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>0.4680555555555555</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>0.49027777777777781</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>0.53611111111111109</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="10">
         <v>63</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="10">
         <v>88</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="10">
         <v>25</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="13">
         <v>44482</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>109</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>0.62847222222222221</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>0.64722222222222225</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="10">
         <v>202</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="10">
         <v>318</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="10">
         <f>G13-F13</f>
         <v>116</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="13">
         <v>44487</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>110</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>0.55277777777777781</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>0.58263888888888882</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>0.63402777777777775</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="10">
         <v>59</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="10">
         <v>108</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="10">
         <v>49</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="13">
         <v>44508</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>204</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>0.46875</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>0.48055555555555557</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.52222222222222225</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F15" s="10">
         <v>114</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="10">
         <v>225</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="10">
         <f>SUM(G15-F15)</f>
         <v>111</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="13">
         <v>44512</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>111</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E16" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="7">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="F16" s="10">
         <v>170</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="10">
         <v>259</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="10">
         <f>SUM(G16-F16)</f>
         <v>89</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="13">
         <v>44515</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>112</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="7">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="C17" s="9">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>0.45277777777777778</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="10">
         <v>225</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="10">
         <v>351</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="10">
         <f>SUM(G17-F17)</f>
         <v>126</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="13">
         <v>44547</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>205</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="7">
         <v>0.4152777777777778</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="9">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="9">
         <v>0.4458333333333333</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="8">
         <v>0.5083333333333333</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="10">
         <v>160</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="10">
         <v>189</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="10">
         <f>SUM(G18-F18)</f>
         <v>29</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="13">
         <v>44526</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>206</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.42291666666666666</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="7">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="C19" s="7">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>0.44861111111111113</v>
       </c>
-      <c r="E19" s="1">
-        <v>0.49861111111111112</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="7">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="F19" s="10">
         <v>233</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="10">
         <v>318</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="10">
         <v>85</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="13">
         <v>44568</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>113</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>0.55486111111111114</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="7">
         <v>0.56805555555555554</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>0.60972222222222217</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="10">
         <v>138</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="10">
         <v>491</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="10">
         <f>G20-F20</f>
         <v>353</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="13">
         <v>44571</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>207</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.41805555555555557</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="7">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="C21" s="7">
         <v>0.42986111111111108</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <v>0.44375000000000003</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="10">
         <v>276</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="10">
         <v>585</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="10">
         <f>G21-F21</f>
         <v>309</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="13">
         <v>44578</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>114</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="7">
         <v>0.66180555555555554</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="7">
         <v>0.6743055555555556</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>0.72569444444444453</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="10">
         <v>107</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="10">
         <v>179</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="10">
         <f>G22-F22</f>
         <v>72</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="13">
         <v>44572</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>115</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.38680555555555557</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="7">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C23" s="7">
         <v>0.4152777777777778</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="7">
         <v>0.42777777777777781</v>
       </c>
-      <c r="E23" s="1">
-        <v>0.47430555555555554</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="7">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F23" s="10">
         <v>187</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="10">
         <v>754</v>
       </c>
-      <c r="H23" s="4">
-        <f t="shared" ref="H23:H53" si="0">G23-F23</f>
+      <c r="H23" s="10">
+        <f t="shared" ref="H23:H54" si="0">G23-F23</f>
         <v>567</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="13">
         <v>44580</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>116</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="7">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="7">
         <v>0.5625</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="7">
         <v>0.57708333333333328</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="10">
         <v>170</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="10">
         <v>630</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="10">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="13">
         <v>44585</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>117</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="7">
         <v>0.53749999999999998</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="7">
         <v>0.55277777777777781</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="7">
         <v>0.56736111111111109</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="7">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="10">
         <v>38</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="10">
         <v>38</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="13">
         <v>44592</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="K25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>118</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="7">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="7">
         <v>0.4777777777777778</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="7">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="7">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="10">
         <v>42</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="10">
         <v>438</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="13">
         <v>44606</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>119</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="7">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C27" s="1">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="D27" s="7">
         <v>0.48472222222222222</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="7">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="10">
         <v>225</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="10">
         <v>322</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="13">
         <v>44608</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>120</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="7">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="7">
         <v>0.60555555555555551</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="7">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="10">
         <v>95</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="10">
         <v>188</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="10">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="13">
         <v>44620</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>121</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="7">
         <v>0.42083333333333334</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="7">
         <v>0.43472222222222223</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="7">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="7">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="10">
         <v>143</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="10">
         <v>234</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="10">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="13">
         <v>44622</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>208</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="7">
         <v>0.46319444444444446</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="7">
         <v>0.47847222222222219</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="7">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="7">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="10">
         <v>38</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="10">
         <v>126</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="10">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="13">
         <v>44659</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>209</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="7">
         <v>0.45208333333333334</v>
       </c>
-      <c r="C31" s="1">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="C31" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="F31" s="10">
         <v>155</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="10">
         <v>176</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="13">
         <v>44664</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>122</v>
       </c>
-      <c r="B32" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="7">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="C32" s="7">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="7">
         <v>0.65138888888888891</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="7">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="10">
         <v>122</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="10">
         <v>328</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="10">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="13">
         <v>44670</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>210</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="7">
         <v>0.63680555555555551</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="9">
         <v>0.67083333333333339</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="7">
         <v>0.68472222222222223</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="7">
         <v>0.73541666666666661</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="10">
         <v>1333</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="10">
         <v>1419</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="10">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="13">
         <v>44677</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>211</v>
       </c>
-      <c r="B34" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" s="7">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C34" s="7">
         <v>0.59583333333333333</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="7">
         <v>0.60972222222222217</v>
       </c>
-      <c r="E34" s="1">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="E34" s="7">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F34" s="10">
         <v>414</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="10">
         <v>433</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="13">
         <v>44686</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>212</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="7">
         <v>0.6743055555555556</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="7">
         <v>0.68472222222222223</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="7">
         <v>0.69861111111111107</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="7">
         <v>0.75</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="10">
         <v>589</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="10">
         <v>633</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="13">
         <v>44686</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>213</v>
       </c>
-      <c r="B36" s="1">
-        <v>0.53402777777777777</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C36" s="7">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="7">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="7">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="10">
         <v>133</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="10">
         <v>317</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="10">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="13">
         <v>44700</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>123</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="7">
         <v>0.58750000000000002</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="7">
         <v>0.59652777777777777</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="7">
         <v>0.61041666666666672</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="7">
         <v>0.64722222222222225</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="10">
         <v>1155</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="10">
         <v>1309</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="10">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="13">
         <v>44701</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>214</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="7">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="7">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="7">
         <v>0.53819444444444442</v>
       </c>
-      <c r="E38" s="1">
-        <v>0.59236111111111112</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="E38" s="7">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="F38" s="10">
         <v>686</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="10">
         <v>883</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="10">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="13">
         <v>44706</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>215</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="7">
         <v>0.59791666666666665</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="7">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="7">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="7">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="10">
         <v>1526</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="10">
         <v>1648</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="10">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="13">
         <v>44706</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>124</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="7">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="7">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="7">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="7">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="10">
         <v>25</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="10">
         <v>45</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="13">
         <v>44715</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>216</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="7">
         <v>0.62708333333333333</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="7">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="7">
         <v>0.64861111111111114</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="7">
         <v>0.70208333333333339</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="10">
         <v>120</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="10">
         <v>176</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="13">
         <v>44719</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>125</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="7">
         <v>0.41388888888888892</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="7">
         <v>0.42777777777777781</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="7">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="7">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="10">
         <v>75</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="10">
         <v>199</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="10">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="13">
         <v>44720</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>217</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="7">
         <v>0.47847222222222219</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="7">
         <v>0.48888888888888887</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="7">
         <v>0.50208333333333333</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="7">
         <v>0.52986111111111112</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="10">
         <v>410</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="10">
         <v>449</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="13">
         <v>44725</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>218</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="7">
         <v>0.33055555555555555</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="7">
         <v>0.3444444444444445</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="7">
         <v>0.35833333333333334</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="7">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="10">
         <v>62</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="10">
         <v>149</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="10">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="13">
         <v>44728</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>219</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="7">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="7">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="7">
         <v>0.44513888888888892</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="7">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="10">
         <v>442</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="10">
         <v>631</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="10">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="13">
         <v>44728</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>126</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="8">
         <v>0.5</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="8">
         <v>0.51180555555555551</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="8">
         <v>0.52638888888888891</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="8">
         <v>0.56319444444444444</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="10">
         <v>129</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="10">
         <v>394</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="10">
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="13">
         <v>44749</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="K46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>127</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="8">
         <v>0.4291666666666667</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="8">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="8">
         <v>0.50208333333333333</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="10">
         <v>283</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="10">
         <v>404</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="10">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="13">
         <v>44750</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>128</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="7">
         <v>0.62777777777777777</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="9">
         <v>0.63472222222222219</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="9">
         <v>0.6479166666666667</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="9">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="10">
         <v>23</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="10">
         <v>101</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="10">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="13">
         <v>44768</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="6">
         <v>129</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="9">
         <v>0.65625</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="9">
         <v>0.6875</v>
       </c>
-      <c r="E49" s="5">
-        <v>0.71875</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="E49" s="9">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F49" s="10">
         <v>155</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="10">
         <v>251</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="10">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="13">
         <v>44777</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="6">
         <v>130</v>
       </c>
-      <c r="B50" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="B50" s="7">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C50" s="9">
         <v>0.47152777777777777</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="9">
         <v>0.48541666666666666</v>
       </c>
-      <c r="E50" s="5">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F50" s="4">
+      <c r="E50" s="9">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F50" s="10">
         <v>34</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="10">
         <v>175</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="10">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="13">
         <v>44781</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="6">
         <v>131</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="9">
         <v>0.66527777777777775</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="9">
         <v>0.6777777777777777</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="9">
         <v>0.69166666666666676</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="9">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="10">
         <v>119</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="10">
         <v>295</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="10">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="13">
         <v>44784</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="6">
         <v>132</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="9">
         <v>0.49652777777777773</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="9">
         <v>0.50624999999999998</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="9">
         <v>0.51944444444444449</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="9">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="10">
         <v>67</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="10">
         <v>88</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="13">
         <v>44818</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="6">
         <v>133</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="9">
         <v>0.62152777777777779</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="9">
         <v>0.6333333333333333</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="9">
         <v>0.6479166666666667</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="9">
         <v>0.69444444444444453</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="10">
         <v>162</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="10">
         <v>266</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="10">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="13">
         <v>44818</v>
       </c>
-      <c r="K53" t="s">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>134</v>
+      </c>
+      <c r="B54" s="9">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="C54" s="9">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="F54" s="10">
+        <v>43</v>
+      </c>
+      <c r="G54" s="10">
+        <v>157</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="I54" s="13">
+        <v>44823</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
     </row>
     <row r="94" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
     </row>
     <row r="96" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
     </row>
     <row r="109" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
     </row>
     <row r="110" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
     </row>
     <row r="112" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
     </row>
     <row r="113" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
     </row>
     <row r="115" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
     </row>
     <row r="116" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
     </row>
     <row r="117" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
     </row>
     <row r="118" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
     </row>
     <row r="119" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
     </row>
     <row r="124" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
     </row>
     <row r="125" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
     </row>
     <row r="127" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
     </row>
     <row r="129" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
     </row>
     <row r="130" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
     </row>
     <row r="131" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
     </row>
     <row r="132" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
     </row>
     <row r="133" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
     </row>
     <row r="134" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
     </row>
     <row r="135" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
     </row>
     <row r="136" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
     </row>
     <row r="137" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
     </row>
     <row r="138" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
     </row>
     <row r="139" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
     </row>
     <row r="140" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
     </row>
     <row r="141" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
     </row>
     <row r="142" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
     </row>
     <row r="143" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8456,6 +8617,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId68" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/fitbit_proj_final/Data/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/fitbit_proj_final/Data/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\fitbit_proj_final\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{10542DDB-8A6B-485A-A73E-EB7B956D7431}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753E9866-55D6-4B0E-94E6-EA556C01D0A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ID participant</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>no steps</t>
+  </si>
+  <si>
+    <t>5 Minuten</t>
+  </si>
+  <si>
+    <t>Middle Interview-5</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -178,6 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -461,13 +468,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -528,13 +535,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -595,13 +602,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -662,13 +669,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -729,13 +736,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -796,13 +803,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -863,13 +870,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -930,13 +937,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -997,13 +1004,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1064,13 +1071,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1131,13 +1138,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1198,13 +1205,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1265,13 +1272,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1332,13 +1339,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1399,13 +1406,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1466,13 +1473,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1533,13 +1540,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1600,13 +1607,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1667,13 +1674,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1734,13 +1741,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1801,13 +1808,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1868,13 +1875,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1935,13 +1942,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2002,13 +2009,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2069,13 +2076,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2136,13 +2143,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2203,13 +2210,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2270,13 +2277,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2337,13 +2344,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2404,13 +2411,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2471,13 +2478,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2538,13 +2545,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2605,13 +2612,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2672,13 +2679,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2739,13 +2746,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2806,16 +2813,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2873,16 +2880,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2940,16 +2947,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>2178</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3007,16 +3014,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3074,16 +3081,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3141,16 +3148,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3208,16 +3215,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3275,16 +3282,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3342,16 +3349,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>2178</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3409,16 +3416,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3476,16 +3483,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3543,16 +3550,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3610,16 +3617,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3677,16 +3684,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>2178</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3744,16 +3751,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3811,16 +3818,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3878,16 +3885,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3945,16 +3952,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4012,16 +4019,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4079,16 +4086,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4146,16 +4153,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>2178</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4213,16 +4220,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>2177</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4280,13 +4287,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4347,13 +4354,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4414,13 +4421,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4481,13 +4488,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4548,13 +4555,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4615,13 +4622,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4682,13 +4689,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4749,13 +4756,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -5112,11 +5119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A46:XFD54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5125,16 +5132,17 @@
     <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="19.69921875" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" style="6"/>
-    <col min="10" max="10" width="16.19921875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" style="3"/>
+    <col min="5" max="5" width="22.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" style="6"/>
+    <col min="11" max="11" width="16.19921875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5148,28 +5156,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>101</v>
       </c>
@@ -5183,22 +5197,29 @@
         <v>0.6777777777777777</v>
       </c>
       <c r="E2" s="7">
+        <f>(F2-D2)/2+D2-$M$2</f>
+        <v>0.69895833333333324</v>
+      </c>
+      <c r="F2" s="7">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="10">
         <v>824</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>867</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>43</v>
       </c>
-      <c r="I2" s="13">
+      <c r="J2" s="13">
         <v>44398</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" s="14">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>102</v>
       </c>
@@ -5212,22 +5233,27 @@
         <v>0.67986111111111114</v>
       </c>
       <c r="E3" s="7">
+        <f>(F3-D3)/2+D3-$M$2</f>
+        <v>0.71215277777777786</v>
+      </c>
+      <c r="F3" s="7">
         <v>0.75138888888888899</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <v>128</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>152</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>24</v>
       </c>
-      <c r="I3" s="13">
+      <c r="J3" s="13">
         <v>44404</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>103</v>
       </c>
@@ -5241,19 +5267,24 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="E4" s="7">
+        <f t="shared" ref="E4:E11" si="0">(F4-D4)/2+D4-$M$2</f>
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="13">
+      <c r="I4" s="10"/>
+      <c r="J4" s="13">
         <v>44405</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>104</v>
       </c>
@@ -5267,22 +5298,27 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64618055555555565</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="10">
         <v>83</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>134</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>51</v>
       </c>
-      <c r="I5" s="13">
+      <c r="J5" s="13">
         <v>44413</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>201</v>
       </c>
@@ -5296,22 +5332,27 @@
         <v>0.54027777777777775</v>
       </c>
       <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.57326388888888891</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="10">
         <v>1025</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>1138</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>113</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J6" s="13">
         <v>44439</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>105</v>
       </c>
@@ -5325,22 +5366,27 @@
         <v>0.66111111111111109</v>
       </c>
       <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>86</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>192</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <v>106</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>44440</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>106</v>
       </c>
@@ -5354,22 +5400,27 @@
         <v>0.4597222222222222</v>
       </c>
       <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.48194444444444451</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <v>63</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>199</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>136</v>
       </c>
-      <c r="I8" s="13">
+      <c r="J8" s="13">
         <v>44454</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -5383,22 +5434,27 @@
         <v>0.70347222222222217</v>
       </c>
       <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.74062499999999998</v>
+      </c>
+      <c r="F9" s="7">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>157</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>528</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>371</v>
       </c>
-      <c r="I9" s="13">
+      <c r="J9" s="13">
         <v>44466</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -5412,22 +5468,27 @@
         <v>0.65486111111111112</v>
       </c>
       <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.67465277777777777</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>62</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>260</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <v>198</v>
       </c>
-      <c r="I10" s="13">
+      <c r="J10" s="13">
         <v>44474</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>107</v>
       </c>
@@ -5441,22 +5502,27 @@
         <v>0.49236111111111108</v>
       </c>
       <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.51597222222222228</v>
+      </c>
+      <c r="F11" s="7">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="10">
         <v>112</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>232</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
         <v>120</v>
       </c>
-      <c r="I11" s="13">
+      <c r="J11" s="13">
         <v>44475</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>108</v>
       </c>
@@ -5470,23 +5536,28 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="E12" s="7">
+        <f>(F12-D12)/2+D12-$M$2</f>
+        <v>0.5097222222222223</v>
+      </c>
+      <c r="F12" s="7">
         <v>0.53611111111111109</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="10">
         <v>63</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>88</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="10">
         <v>25</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J12" s="13">
         <v>44482</v>
       </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="4"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>109</v>
       </c>
@@ -5500,23 +5571,28 @@
         <v>0.66111111111111109</v>
       </c>
       <c r="E13" s="7">
+        <f>(F13-D13)/2+D13-$M$2</f>
+        <v>0.6850694444444444</v>
+      </c>
+      <c r="F13" s="7">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>202</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>318</v>
       </c>
-      <c r="H13" s="10">
-        <f>G13-F13</f>
+      <c r="I13" s="10">
+        <f>H13-G13</f>
         <v>116</v>
       </c>
-      <c r="I13" s="13">
+      <c r="J13" s="13">
         <v>44487</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>110</v>
       </c>
@@ -5530,22 +5606,27 @@
         <v>0.58263888888888882</v>
       </c>
       <c r="E14" s="7">
+        <f t="shared" ref="E14" si="1">(F14-D14)/2+D14-$M$2</f>
+        <v>0.60486111111111107</v>
+      </c>
+      <c r="F14" s="7">
         <v>0.63402777777777775</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G14" s="10">
         <v>59</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>108</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
         <v>49</v>
       </c>
-      <c r="I14" s="13">
+      <c r="J14" s="13">
         <v>44508</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>204</v>
       </c>
@@ -5559,23 +5640,28 @@
         <v>0.48055555555555557</v>
       </c>
       <c r="E15" s="7">
+        <f>(F15-D15)/2+D15-$M$2</f>
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="F15" s="7">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F15" s="10">
+      <c r="G15" s="10">
         <v>114</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>225</v>
       </c>
-      <c r="H15" s="10">
-        <f>SUM(G15-F15)</f>
+      <c r="I15" s="10">
+        <f>SUM(H15-G15)</f>
         <v>111</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J15" s="13">
         <v>44512</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>111</v>
       </c>
@@ -5589,23 +5675,28 @@
         <v>0.6777777777777777</v>
       </c>
       <c r="E16" s="7">
+        <f>(F16-D16)/2+D16-$M$2</f>
+        <v>0.68888888888888877</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.70694444444444438</v>
       </c>
-      <c r="F16" s="10">
+      <c r="G16" s="10">
         <v>170</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>259</v>
       </c>
-      <c r="H16" s="10">
-        <f>SUM(G16-F16)</f>
+      <c r="I16" s="10">
+        <f>SUM(H16-G16)</f>
         <v>89</v>
       </c>
-      <c r="I16" s="13">
+      <c r="J16" s="13">
         <v>44515</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>112</v>
       </c>
@@ -5619,23 +5710,28 @@
         <v>0.45277777777777778</v>
       </c>
       <c r="E17" s="7">
+        <f t="shared" ref="E17:E24" si="2">(F17-D17)/2+D17-$M$2</f>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="F17" s="7">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="10">
         <v>225</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>351</v>
       </c>
-      <c r="H17" s="10">
-        <f>SUM(G17-F17)</f>
+      <c r="I17" s="10">
+        <f>SUM(H17-G17)</f>
         <v>126</v>
       </c>
-      <c r="I17" s="13">
+      <c r="J17" s="13">
         <v>44547</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>205</v>
       </c>
@@ -5648,24 +5744,29 @@
       <c r="D18" s="9">
         <v>0.4458333333333333</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="F18" s="8">
         <v>0.5083333333333333</v>
       </c>
-      <c r="F18" s="10">
+      <c r="G18" s="10">
         <v>160</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <v>189</v>
       </c>
-      <c r="H18" s="10">
-        <f>SUM(G18-F18)</f>
+      <c r="I18" s="10">
+        <f>SUM(H18-G18)</f>
         <v>29</v>
       </c>
-      <c r="I18" s="13">
+      <c r="J18" s="13">
         <v>44526</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>206</v>
       </c>
@@ -5679,22 +5780,27 @@
         <v>0.44861111111111113</v>
       </c>
       <c r="E19" s="7">
+        <f t="shared" si="2"/>
+        <v>0.46840277777777778</v>
+      </c>
+      <c r="F19" s="7">
         <v>0.49513888888888885</v>
       </c>
-      <c r="F19" s="10">
+      <c r="G19" s="10">
         <v>233</v>
       </c>
-      <c r="G19" s="10">
+      <c r="H19" s="10">
         <v>318</v>
       </c>
-      <c r="H19" s="10">
+      <c r="I19" s="10">
         <v>85</v>
       </c>
-      <c r="I19" s="13">
+      <c r="J19" s="13">
         <v>44568</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>113</v>
       </c>
@@ -5708,23 +5814,28 @@
         <v>0.56805555555555554</v>
       </c>
       <c r="E20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.58541666666666659</v>
+      </c>
+      <c r="F20" s="7">
         <v>0.60972222222222217</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G20" s="10">
         <v>138</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <v>491</v>
       </c>
-      <c r="H20" s="10">
-        <f>G20-F20</f>
+      <c r="I20" s="10">
+        <f>H20-G20</f>
         <v>353</v>
       </c>
-      <c r="I20" s="13">
+      <c r="J20" s="13">
         <v>44571</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>207</v>
       </c>
@@ -5738,23 +5849,28 @@
         <v>0.44375000000000003</v>
       </c>
       <c r="E21" s="7">
+        <f t="shared" si="2"/>
+        <v>0.47534722222222225</v>
+      </c>
+      <c r="F21" s="7">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F21" s="10">
+      <c r="G21" s="10">
         <v>276</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>585</v>
       </c>
-      <c r="H21" s="10">
-        <f>G21-F21</f>
+      <c r="I21" s="10">
+        <f>H21-G21</f>
         <v>309</v>
       </c>
-      <c r="I21" s="13">
+      <c r="J21" s="13">
         <v>44578</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>114</v>
       </c>
@@ -5768,23 +5884,28 @@
         <v>0.6743055555555556</v>
       </c>
       <c r="E22" s="7">
+        <f t="shared" si="2"/>
+        <v>0.69652777777777786</v>
+      </c>
+      <c r="F22" s="7">
         <v>0.72569444444444453</v>
       </c>
-      <c r="F22" s="10">
+      <c r="G22" s="10">
         <v>107</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <v>179</v>
       </c>
-      <c r="H22" s="10">
-        <f>G22-F22</f>
+      <c r="I22" s="10">
+        <f>H22-G22</f>
         <v>72</v>
       </c>
-      <c r="I22" s="13">
+      <c r="J22" s="13">
         <v>44572</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>115</v>
       </c>
@@ -5798,23 +5919,28 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="E23" s="7">
+        <f t="shared" si="2"/>
+        <v>0.44652777777777786</v>
+      </c>
+      <c r="F23" s="7">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F23" s="10">
+      <c r="G23" s="10">
         <v>187</v>
       </c>
-      <c r="G23" s="10">
+      <c r="H23" s="10">
         <v>754</v>
       </c>
-      <c r="H23" s="10">
-        <f t="shared" ref="H23:H54" si="0">G23-F23</f>
+      <c r="I23" s="10">
+        <f t="shared" ref="I23:I54" si="3">H23-G23</f>
         <v>567</v>
       </c>
-      <c r="I23" s="13">
+      <c r="J23" s="13">
         <v>44580</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>116</v>
       </c>
@@ -5828,23 +5954,28 @@
         <v>0.57708333333333328</v>
       </c>
       <c r="E24" s="7">
+        <f t="shared" si="2"/>
+        <v>0.60104166666666659</v>
+      </c>
+      <c r="F24" s="7">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F24" s="10">
+      <c r="G24" s="10">
         <v>170</v>
       </c>
-      <c r="G24" s="10">
+      <c r="H24" s="10">
         <v>630</v>
       </c>
-      <c r="H24" s="10">
-        <f t="shared" si="0"/>
+      <c r="I24" s="10">
+        <f t="shared" si="3"/>
         <v>460</v>
       </c>
-      <c r="I24" s="13">
+      <c r="J24" s="13">
         <v>44585</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>117</v>
       </c>
@@ -5858,26 +5989,31 @@
         <v>0.56736111111111109</v>
       </c>
       <c r="E25" s="7">
+        <f>(F25-D25)/2+D25-$M$2</f>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="F25" s="7">
         <v>0.61458333333333337</v>
-      </c>
-      <c r="F25" s="10">
-        <v>38</v>
       </c>
       <c r="G25" s="10">
         <v>38</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="13">
+      <c r="J25" s="13">
         <v>44592</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>118</v>
       </c>
@@ -5891,23 +6027,28 @@
         <v>0.49236111111111108</v>
       </c>
       <c r="E26" s="7">
+        <f>(F26-D26)/2+D26-$M$2</f>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="F26" s="7">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F26" s="10">
+      <c r="G26" s="10">
         <v>42</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <v>438</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="0"/>
+      <c r="I26" s="10">
+        <f t="shared" si="3"/>
         <v>396</v>
       </c>
-      <c r="I26" s="13">
+      <c r="J26" s="13">
         <v>44606</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>119</v>
       </c>
@@ -5921,23 +6062,28 @@
         <v>0.48472222222222222</v>
       </c>
       <c r="E27" s="7">
+        <f>(F27-D27)/2+D27-$M$2</f>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="F27" s="7">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F27" s="10">
+      <c r="G27" s="10">
         <v>225</v>
       </c>
-      <c r="G27" s="10">
+      <c r="H27" s="10">
         <v>322</v>
       </c>
-      <c r="H27" s="10">
-        <f t="shared" si="0"/>
+      <c r="I27" s="10">
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="I27" s="13">
+      <c r="J27" s="13">
         <v>44608</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>120</v>
       </c>
@@ -5951,23 +6097,28 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="E28" s="7">
+        <f>(F28-D28)/2+D28-$M$2</f>
+        <v>0.63993055555555556</v>
+      </c>
+      <c r="F28" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F28" s="10">
+      <c r="G28" s="10">
         <v>95</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <v>188</v>
       </c>
-      <c r="H28" s="10">
-        <f t="shared" si="0"/>
+      <c r="I28" s="10">
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="I28" s="13">
+      <c r="J28" s="13">
         <v>44620</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>121</v>
       </c>
@@ -5981,23 +6132,28 @@
         <v>0.44930555555555557</v>
       </c>
       <c r="E29" s="7">
+        <f t="shared" ref="E29:E36" si="4">(F29-D29)/2+D29-$M$2</f>
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="F29" s="7">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F29" s="10">
+      <c r="G29" s="10">
         <v>143</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H29" s="10">
         <v>234</v>
       </c>
-      <c r="H29" s="10">
-        <f t="shared" si="0"/>
+      <c r="I29" s="10">
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="I29" s="13">
+      <c r="J29" s="13">
         <v>44622</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>208</v>
       </c>
@@ -6011,23 +6167,28 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="E30" s="7">
+        <f t="shared" si="4"/>
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F30" s="7">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F30" s="10">
+      <c r="G30" s="10">
         <v>38</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <v>126</v>
       </c>
-      <c r="H30" s="10">
-        <f t="shared" si="0"/>
+      <c r="I30" s="10">
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="I30" s="13">
+      <c r="J30" s="13">
         <v>44659</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>209</v>
       </c>
@@ -6041,23 +6202,28 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="E31" s="7">
+        <f t="shared" si="4"/>
+        <v>0.49895833333333339</v>
+      </c>
+      <c r="F31" s="7">
         <v>0.52708333333333335</v>
       </c>
-      <c r="F31" s="10">
+      <c r="G31" s="10">
         <v>155</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H31" s="10">
         <v>176</v>
       </c>
-      <c r="H31" s="10">
-        <f t="shared" si="0"/>
+      <c r="I31" s="10">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="I31" s="13">
+      <c r="J31" s="13">
         <v>44664</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>122</v>
       </c>
@@ -6071,23 +6237,28 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="E32" s="7">
+        <f t="shared" si="4"/>
+        <v>0.67951388888888886</v>
+      </c>
+      <c r="F32" s="7">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F32" s="10">
+      <c r="G32" s="10">
         <v>122</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <v>328</v>
       </c>
-      <c r="H32" s="10">
-        <f t="shared" si="0"/>
+      <c r="I32" s="10">
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="I32" s="13">
+      <c r="J32" s="13">
         <v>44670</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>210</v>
       </c>
@@ -6101,23 +6272,28 @@
         <v>0.68472222222222223</v>
       </c>
       <c r="E33" s="7">
+        <f t="shared" si="4"/>
+        <v>0.70659722222222221</v>
+      </c>
+      <c r="F33" s="7">
         <v>0.73541666666666661</v>
       </c>
-      <c r="F33" s="10">
+      <c r="G33" s="10">
         <v>1333</v>
       </c>
-      <c r="G33" s="10">
+      <c r="H33" s="10">
         <v>1419</v>
       </c>
-      <c r="H33" s="10">
-        <f t="shared" si="0"/>
+      <c r="I33" s="10">
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="I33" s="13">
+      <c r="J33" s="13">
         <v>44677</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>211</v>
       </c>
@@ -6131,23 +6307,28 @@
         <v>0.60972222222222217</v>
       </c>
       <c r="E34" s="7">
+        <f t="shared" si="4"/>
+        <v>0.63611111111111107</v>
+      </c>
+      <c r="F34" s="7">
         <v>0.6694444444444444</v>
       </c>
-      <c r="F34" s="10">
+      <c r="G34" s="10">
         <v>414</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="10">
         <v>433</v>
       </c>
-      <c r="H34" s="10">
-        <f t="shared" si="0"/>
+      <c r="I34" s="10">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="I34" s="13">
+      <c r="J34" s="13">
         <v>44686</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>212</v>
       </c>
@@ -6161,23 +6342,28 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="E35" s="7">
+        <f t="shared" si="4"/>
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="F35" s="7">
         <v>0.75</v>
       </c>
-      <c r="F35" s="10">
+      <c r="G35" s="10">
         <v>589</v>
       </c>
-      <c r="G35" s="10">
+      <c r="H35" s="10">
         <v>633</v>
       </c>
-      <c r="H35" s="10">
-        <f t="shared" si="0"/>
+      <c r="I35" s="10">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="I35" s="13">
+      <c r="J35" s="13">
         <v>44686</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>213</v>
       </c>
@@ -6191,23 +6377,28 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="E36" s="7">
+        <f t="shared" si="4"/>
+        <v>0.58263888888888893</v>
+      </c>
+      <c r="F36" s="7">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F36" s="10">
+      <c r="G36" s="10">
         <v>133</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <v>317</v>
       </c>
-      <c r="H36" s="10">
-        <f t="shared" si="0"/>
+      <c r="I36" s="10">
+        <f t="shared" si="3"/>
         <v>184</v>
       </c>
-      <c r="I36" s="13">
+      <c r="J36" s="13">
         <v>44700</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>123</v>
       </c>
@@ -6221,23 +6412,28 @@
         <v>0.61041666666666672</v>
       </c>
       <c r="E37" s="7">
+        <f>(F37-D37)/2+D37-$M$2</f>
+        <v>0.62534722222222228</v>
+      </c>
+      <c r="F37" s="7">
         <v>0.64722222222222225</v>
       </c>
-      <c r="F37" s="10">
+      <c r="G37" s="10">
         <v>1155</v>
       </c>
-      <c r="G37" s="10">
+      <c r="H37" s="10">
         <v>1309</v>
       </c>
-      <c r="H37" s="10">
-        <f t="shared" si="0"/>
+      <c r="I37" s="10">
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="I37" s="13">
+      <c r="J37" s="13">
         <v>44701</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>214</v>
       </c>
@@ -6251,23 +6447,28 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="E38" s="7">
+        <f>(F38-D38)/2+D38-$M$2</f>
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="F38" s="7">
         <v>0.5854166666666667</v>
       </c>
-      <c r="F38" s="10">
+      <c r="G38" s="10">
         <v>686</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <v>883</v>
       </c>
-      <c r="H38" s="10">
-        <f t="shared" si="0"/>
+      <c r="I38" s="10">
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="I38" s="13">
+      <c r="J38" s="13">
         <v>44706</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>215</v>
       </c>
@@ -6281,23 +6482,28 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="E39" s="7">
+        <f t="shared" ref="E39" si="5">(F39-D39)/2+D39-$M$2</f>
+        <v>0.65104166666666663</v>
+      </c>
+      <c r="F39" s="7">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F39" s="10">
+      <c r="G39" s="10">
         <v>1526</v>
       </c>
-      <c r="G39" s="10">
+      <c r="H39" s="10">
         <v>1648</v>
       </c>
-      <c r="H39" s="10">
-        <f t="shared" si="0"/>
+      <c r="I39" s="10">
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="I39" s="13">
+      <c r="J39" s="13">
         <v>44706</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>124</v>
       </c>
@@ -6311,23 +6517,28 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="E40" s="7">
+        <f>(F40-D40)/2+D40-$M$2</f>
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="F40" s="7">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F40" s="10">
+      <c r="G40" s="10">
         <v>25</v>
       </c>
-      <c r="G40" s="10">
+      <c r="H40" s="10">
         <v>45</v>
       </c>
-      <c r="H40" s="10">
-        <f t="shared" si="0"/>
+      <c r="I40" s="10">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I40" s="13">
+      <c r="J40" s="13">
         <v>44715</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>216</v>
       </c>
@@ -6341,23 +6552,28 @@
         <v>0.64861111111111114</v>
       </c>
       <c r="E41" s="7">
+        <f>(F41-D41)/2+D41-$M$2</f>
+        <v>0.67187500000000011</v>
+      </c>
+      <c r="F41" s="7">
         <v>0.70208333333333339</v>
       </c>
-      <c r="F41" s="10">
+      <c r="G41" s="10">
         <v>120</v>
       </c>
-      <c r="G41" s="10">
+      <c r="H41" s="10">
         <v>176</v>
       </c>
-      <c r="H41" s="10">
-        <f t="shared" si="0"/>
+      <c r="I41" s="10">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="I41" s="13">
+      <c r="J41" s="13">
         <v>44719</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>125</v>
       </c>
@@ -6371,23 +6587,28 @@
         <v>0.44166666666666665</v>
       </c>
       <c r="E42" s="7">
+        <f t="shared" ref="E42:E49" si="6">(F42-D42)/2+D42-$M$2</f>
+        <v>0.45868055555555554</v>
+      </c>
+      <c r="F42" s="7">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F42" s="10">
+      <c r="G42" s="10">
         <v>75</v>
       </c>
-      <c r="G42" s="10">
+      <c r="H42" s="10">
         <v>199</v>
       </c>
-      <c r="H42" s="10">
-        <f t="shared" si="0"/>
+      <c r="I42" s="10">
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="I42" s="13">
+      <c r="J42" s="13">
         <v>44720</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>217</v>
       </c>
@@ -6401,23 +6622,28 @@
         <v>0.50208333333333333</v>
       </c>
       <c r="E43" s="7">
+        <f t="shared" si="6"/>
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="F43" s="7">
         <v>0.52986111111111112</v>
       </c>
-      <c r="F43" s="10">
+      <c r="G43" s="10">
         <v>410</v>
       </c>
-      <c r="G43" s="10">
+      <c r="H43" s="10">
         <v>449</v>
       </c>
-      <c r="H43" s="10">
-        <f t="shared" si="0"/>
+      <c r="I43" s="10">
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="I43" s="13">
+      <c r="J43" s="13">
         <v>44725</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>218</v>
       </c>
@@ -6431,23 +6657,28 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="E44" s="7">
+        <f t="shared" si="6"/>
+        <v>0.38020833333333337</v>
+      </c>
+      <c r="F44" s="7">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F44" s="10">
+      <c r="G44" s="10">
         <v>62</v>
       </c>
-      <c r="G44" s="10">
+      <c r="H44" s="10">
         <v>149</v>
       </c>
-      <c r="H44" s="10">
-        <f t="shared" si="0"/>
+      <c r="I44" s="10">
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="I44" s="13">
+      <c r="J44" s="13">
         <v>44728</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>219</v>
       </c>
@@ -6461,23 +6692,28 @@
         <v>0.44513888888888892</v>
       </c>
       <c r="E45" s="7">
+        <f t="shared" si="6"/>
+        <v>0.45763888888888893</v>
+      </c>
+      <c r="F45" s="7">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F45" s="10">
+      <c r="G45" s="10">
         <v>442</v>
       </c>
-      <c r="G45" s="10">
+      <c r="H45" s="10">
         <v>631</v>
       </c>
-      <c r="H45" s="10">
-        <f t="shared" si="0"/>
+      <c r="I45" s="10">
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="I45" s="13">
+      <c r="J45" s="13">
         <v>44728</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>126</v>
       </c>
@@ -6490,27 +6726,32 @@
       <c r="D46" s="8">
         <v>0.52638888888888891</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
+        <f t="shared" si="6"/>
+        <v>0.54131944444444446</v>
+      </c>
+      <c r="F46" s="8">
         <v>0.56319444444444444</v>
       </c>
-      <c r="F46" s="10">
+      <c r="G46" s="10">
         <v>129</v>
       </c>
-      <c r="G46" s="10">
+      <c r="H46" s="10">
         <v>394</v>
       </c>
-      <c r="H46" s="10">
-        <f t="shared" si="0"/>
+      <c r="I46" s="10">
+        <f t="shared" si="3"/>
         <v>265</v>
       </c>
-      <c r="I46" s="13">
+      <c r="J46" s="13">
         <v>44749</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>127</v>
       </c>
@@ -6523,24 +6764,29 @@
       <c r="D47" s="8">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
+        <f t="shared" si="6"/>
+        <v>0.46909722222222222</v>
+      </c>
+      <c r="F47" s="8">
         <v>0.50208333333333333</v>
       </c>
-      <c r="F47" s="10">
+      <c r="G47" s="10">
         <v>283</v>
       </c>
-      <c r="G47" s="10">
+      <c r="H47" s="10">
         <v>404</v>
       </c>
-      <c r="H47" s="10">
-        <f t="shared" si="0"/>
+      <c r="I47" s="10">
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="I47" s="13">
+      <c r="J47" s="13">
         <v>44750</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>128</v>
       </c>
@@ -6553,24 +6799,29 @@
       <c r="D48" s="9">
         <v>0.6479166666666667</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="7">
+        <f t="shared" si="6"/>
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F48" s="9">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F48" s="10">
+      <c r="G48" s="10">
         <v>23</v>
       </c>
-      <c r="G48" s="10">
+      <c r="H48" s="10">
         <v>101</v>
       </c>
-      <c r="H48" s="10">
-        <f t="shared" si="0"/>
+      <c r="I48" s="10">
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="I48" s="13">
+      <c r="J48" s="13">
         <v>44768</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>129</v>
       </c>
@@ -6583,24 +6834,29 @@
       <c r="D49" s="9">
         <v>0.6875</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="7">
+        <f t="shared" si="6"/>
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="F49" s="9">
         <v>0.72222222222222221</v>
       </c>
-      <c r="F49" s="10">
+      <c r="G49" s="10">
         <v>155</v>
       </c>
-      <c r="G49" s="10">
+      <c r="H49" s="10">
         <v>251</v>
       </c>
-      <c r="H49" s="10">
-        <f t="shared" si="0"/>
+      <c r="I49" s="10">
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="I49" s="13">
+      <c r="J49" s="13">
         <v>44777</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>130</v>
       </c>
@@ -6613,24 +6869,29 @@
       <c r="D50" s="9">
         <v>0.48541666666666666</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="7">
+        <f>(F50-D50)/2+D50-$M$2</f>
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="F50" s="9">
         <v>0.5229166666666667</v>
       </c>
-      <c r="F50" s="10">
+      <c r="G50" s="10">
         <v>34</v>
       </c>
-      <c r="G50" s="10">
+      <c r="H50" s="10">
         <v>175</v>
       </c>
-      <c r="H50" s="10">
-        <f t="shared" si="0"/>
+      <c r="I50" s="10">
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="I50" s="13">
+      <c r="J50" s="13">
         <v>44781</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>131</v>
       </c>
@@ -6643,24 +6904,29 @@
       <c r="D51" s="9">
         <v>0.69166666666666676</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="7">
+        <f>(F51-D51)/2+D51-$M$2</f>
+        <v>0.71631944444444451</v>
+      </c>
+      <c r="F51" s="9">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F51" s="10">
+      <c r="G51" s="10">
         <v>119</v>
       </c>
-      <c r="G51" s="10">
+      <c r="H51" s="10">
         <v>295</v>
       </c>
-      <c r="H51" s="10">
-        <f t="shared" si="0"/>
+      <c r="I51" s="10">
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="I51" s="13">
+      <c r="J51" s="13">
         <v>44784</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>132</v>
       </c>
@@ -6673,27 +6939,32 @@
       <c r="D52" s="9">
         <v>0.51944444444444449</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="7">
+        <f>(F52-D52)/2+D52-$M$2</f>
+        <v>0.5409722222222223</v>
+      </c>
+      <c r="F52" s="9">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F52" s="10">
+      <c r="G52" s="10">
         <v>67</v>
       </c>
-      <c r="G52" s="10">
+      <c r="H52" s="10">
         <v>88</v>
       </c>
-      <c r="H52" s="10">
-        <f t="shared" si="0"/>
+      <c r="I52" s="10">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="I52" s="13">
+      <c r="J52" s="13">
         <v>44818</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>133</v>
       </c>
@@ -6706,24 +6977,29 @@
       <c r="D53" s="9">
         <v>0.6479166666666667</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="7">
+        <f t="shared" ref="E53:E54" si="7">(F53-D53)/2+D53-$M$2</f>
+        <v>0.66770833333333346</v>
+      </c>
+      <c r="F53" s="9">
         <v>0.69444444444444453</v>
       </c>
-      <c r="F53" s="10">
+      <c r="G53" s="10">
         <v>162</v>
       </c>
-      <c r="G53" s="10">
+      <c r="H53" s="10">
         <v>266</v>
       </c>
-      <c r="H53" s="10">
-        <f t="shared" si="0"/>
+      <c r="I53" s="10">
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="I53" s="13">
+      <c r="J53" s="13">
         <v>44818</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>134</v>
       </c>
@@ -6736,470 +7012,486 @@
       <c r="D54" s="9">
         <v>0.69027777777777777</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="7">
+        <f t="shared" si="7"/>
+        <v>0.71041666666666659</v>
+      </c>
+      <c r="F54" s="9">
         <v>0.73749999999999993</v>
       </c>
-      <c r="F54" s="10">
+      <c r="G54" s="10">
         <v>43</v>
       </c>
-      <c r="G54" s="10">
+      <c r="H54" s="10">
         <v>157</v>
       </c>
-      <c r="H54" s="10">
-        <f t="shared" si="0"/>
+      <c r="I54" s="10">
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="I54" s="13">
+      <c r="J54" s="13">
         <v>44823</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F55" s="10"/>
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F56" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F57" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F58" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F59" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="M58" s="14"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F60" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="M59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F61" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="M60" s="14"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F62" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F63" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F64" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F65" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="M64" s="14"/>
+    </row>
+    <row r="65" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F66" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F67" s="10"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F68" s="10"/>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F69" s="10"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F70" s="10"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F71" s="10"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F72" s="10"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F73" s="10"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F74" s="10"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F75" s="10"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F76" s="10"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F77" s="10"/>
+      <c r="I76" s="10"/>
+    </row>
+    <row r="77" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F78" s="10"/>
+      <c r="I77" s="10"/>
+    </row>
+    <row r="78" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F79" s="10"/>
+      <c r="I78" s="10"/>
+    </row>
+    <row r="79" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F80" s="10"/>
+      <c r="I79" s="10"/>
+    </row>
+    <row r="80" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F81" s="10"/>
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F82" s="10"/>
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F83" s="10"/>
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F84" s="10"/>
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F85" s="10"/>
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F86" s="10"/>
+      <c r="I85" s="10"/>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F87" s="10"/>
+      <c r="I86" s="10"/>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F88" s="10"/>
+      <c r="I87" s="10"/>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F89" s="10"/>
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F90" s="10"/>
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F91" s="10"/>
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F92" s="10"/>
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F93" s="10"/>
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F94" s="10"/>
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F95" s="10"/>
+      <c r="I94" s="10"/>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="10"/>
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F97" s="10"/>
+      <c r="I96" s="10"/>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F98" s="10"/>
+      <c r="I97" s="10"/>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F99" s="10"/>
+      <c r="I98" s="10"/>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F100" s="10"/>
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F101" s="10"/>
+      <c r="I100" s="10"/>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F102" s="10"/>
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F103" s="10"/>
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F104" s="10"/>
+      <c r="I103" s="10"/>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F105" s="10"/>
+      <c r="I104" s="10"/>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F106" s="10"/>
+      <c r="I105" s="10"/>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F107" s="10"/>
+      <c r="I106" s="10"/>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F108" s="10"/>
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F109" s="10"/>
+      <c r="I108" s="10"/>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F110" s="10"/>
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F111" s="10"/>
+      <c r="I110" s="10"/>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F112" s="10"/>
+      <c r="I111" s="10"/>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F113" s="10"/>
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F114" s="10"/>
+      <c r="I113" s="10"/>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F115" s="10"/>
+      <c r="I114" s="10"/>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F116" s="10"/>
+      <c r="I115" s="10"/>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F117" s="10"/>
+      <c r="I116" s="10"/>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F118" s="10"/>
+      <c r="I117" s="10"/>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F119" s="10"/>
+      <c r="I118" s="10"/>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F120" s="10"/>
+      <c r="I119" s="10"/>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F121" s="10"/>
+      <c r="I120" s="10"/>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F122" s="10"/>
+      <c r="I121" s="10"/>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F123" s="10"/>
+      <c r="I122" s="10"/>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F124" s="10"/>
+      <c r="I123" s="10"/>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F125" s="10"/>
+      <c r="I124" s="10"/>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F126" s="10"/>
+      <c r="I125" s="10"/>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F127" s="10"/>
+      <c r="I126" s="10"/>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F128" s="10"/>
+      <c r="I127" s="10"/>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F129" s="10"/>
+      <c r="I128" s="10"/>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F130" s="10"/>
+      <c r="I129" s="10"/>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F131" s="10"/>
+      <c r="I130" s="10"/>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F132" s="10"/>
+      <c r="I131" s="10"/>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F133" s="10"/>
+      <c r="I132" s="10"/>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F134" s="10"/>
+      <c r="I133" s="10"/>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F135" s="10"/>
+      <c r="I134" s="10"/>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F136" s="10"/>
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F137" s="10"/>
+      <c r="I136" s="10"/>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F138" s="10"/>
+      <c r="I137" s="10"/>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F139" s="10"/>
+      <c r="I138" s="10"/>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F140" s="10"/>
+      <c r="I139" s="10"/>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
-    </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F141" s="10"/>
+      <c r="I140" s="10"/>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
-    </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F142" s="10"/>
+      <c r="I141" s="10"/>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
-    </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F143" s="10"/>
+      <c r="I142" s="10"/>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7215,13 +7507,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7237,13 +7529,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7259,13 +7551,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7281,13 +7573,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7303,13 +7595,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7325,13 +7617,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7347,13 +7639,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7369,13 +7661,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7391,13 +7683,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7413,13 +7705,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7435,13 +7727,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7457,13 +7749,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7479,13 +7771,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7501,13 +7793,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7523,13 +7815,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7545,13 +7837,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7567,13 +7859,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7589,13 +7881,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7611,13 +7903,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7633,13 +7925,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7655,13 +7947,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7677,13 +7969,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7699,13 +7991,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7721,13 +8013,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7743,13 +8035,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7765,13 +8057,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7787,13 +8079,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7809,13 +8101,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7831,13 +8123,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7853,13 +8145,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7875,13 +8167,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7897,13 +8189,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7919,13 +8211,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7941,13 +8233,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7963,13 +8255,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7985,13 +8277,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8007,13 +8299,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8029,13 +8321,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8051,13 +8343,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8073,13 +8365,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8095,13 +8387,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8117,13 +8409,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8139,13 +8431,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8161,13 +8453,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8183,13 +8475,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8205,13 +8497,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8227,13 +8519,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8249,13 +8541,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8271,13 +8563,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8293,13 +8585,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8315,13 +8607,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8337,13 +8629,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8359,13 +8651,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8381,13 +8673,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8403,13 +8695,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8425,13 +8717,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8447,13 +8739,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8469,13 +8761,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8491,13 +8783,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8513,13 +8805,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8535,13 +8827,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8557,13 +8849,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8579,13 +8871,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8601,13 +8893,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8623,13 +8915,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
